--- a/src/main/resources/excel/lab/price_sheet_item_list.xlsx
+++ b/src/main/resources/excel/lab/price_sheet_item_list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4\Desktop\MES 정리 중\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4\Desktop\MES 정리 중\시스템양식\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -52,7 +52,7 @@
     <definedName name="NDASLTRTier4">#REF!</definedName>
     <definedName name="NDASPkgTier4" localSheetId="0">#REF!</definedName>
     <definedName name="NDASPkgTier4">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'겔#03'!$B$1:$F$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'겔#03'!$B$1:$F$72</definedName>
     <definedName name="SecondDatHundTier4" localSheetId="0">#REF!</definedName>
     <definedName name="SecondDatHundTier4">#REF!</definedName>
     <definedName name="SecondDayAMCommLtrTier4" localSheetId="0">#REF!</definedName>
@@ -262,63 +262,63 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>제품 단가 정산</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>제품명</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>담당연구원</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>영업부담당 / 업체명</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>제품용량 (ml)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>충전량 (제품용량 X 비중)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>생산개수 (ea)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>로스율 (%)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>생산량 (충전량*개수*로스율)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>원료</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>함량(%)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>원료단가 (kg)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>제품단가 (g)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>비고</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>원료명</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -334,7 +334,7 @@
     <numFmt numFmtId="180" formatCode="0.0000000"/>
     <numFmt numFmtId="181" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,14 +346,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -447,7 +439,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -875,43 +867,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -1100,13 +1055,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1115,100 +1070,136 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="13" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1271,79 +1262,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1375,13 +1318,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>132182</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -49585,10 +49528,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:J56"/>
+  <dimension ref="B1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -49601,178 +49544,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="2:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="36"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="40"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="40"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="52"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="40"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="52"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="57"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="40"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="52"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="47"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="59"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="50"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="62"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="69" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="63"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="70"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="64"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="68"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="69"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="69"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="75"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="41"/>
     </row>
     <row r="15" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="69"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="75"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
     </row>
     <row r="16" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="69"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="75"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41"/>
     </row>
     <row r="17" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="69"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="75"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41"/>
     </row>
     <row r="18" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="69"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="75"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="41"/>
     </row>
     <row r="19" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="69"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="75"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="41"/>
     </row>
     <row r="20" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="69"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
       <c r="E20" s="7"/>
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="69"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
       <c r="E21" s="7"/>
@@ -49783,7 +49726,7 @@
       <c r="J21" s="11"/>
     </row>
     <row r="22" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="69"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
       <c r="E22" s="7"/>
@@ -49794,7 +49737,7 @@
       <c r="J22" s="12"/>
     </row>
     <row r="23" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="69"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
       <c r="E23" s="7"/>
@@ -49805,7 +49748,7 @@
       <c r="J23" s="12"/>
     </row>
     <row r="24" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="69"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
       <c r="E24" s="7"/>
@@ -49816,29 +49759,29 @@
       <c r="J24" s="12"/>
     </row>
     <row r="25" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="69"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="29"/>
+      <c r="F25" s="28"/>
       <c r="G25" s="10"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
     </row>
     <row r="26" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="69"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="29"/>
+      <c r="F26" s="28"/>
       <c r="G26" s="10"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
     </row>
     <row r="27" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="69"/>
+      <c r="B27" s="35"/>
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
       <c r="E27" s="7"/>
@@ -49849,7 +49792,7 @@
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="69"/>
+      <c r="B28" s="35"/>
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
       <c r="E28" s="7"/>
@@ -49860,7 +49803,7 @@
       <c r="J28" s="13"/>
     </row>
     <row r="29" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="69"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
       <c r="E29" s="7"/>
@@ -49871,7 +49814,7 @@
       <c r="J29" s="13"/>
     </row>
     <row r="30" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="69"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
       <c r="E30" s="7"/>
@@ -49882,14 +49825,14 @@
       <c r="J30" s="13"/>
     </row>
     <row r="31" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="69"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
       <c r="E31" s="7"/>
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="69"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="3"/>
       <c r="D32" s="4"/>
       <c r="E32" s="7"/>
@@ -49900,7 +49843,7 @@
       <c r="J32" s="12"/>
     </row>
     <row r="33" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="69"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="3"/>
       <c r="D33" s="4"/>
       <c r="E33" s="7"/>
@@ -49911,7 +49854,7 @@
       <c r="J33" s="13"/>
     </row>
     <row r="34" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="69"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="15"/>
       <c r="D34" s="4"/>
       <c r="E34" s="7"/>
@@ -49922,220 +49865,417 @@
       <c r="J34" s="13"/>
     </row>
     <row r="35" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="69"/>
-      <c r="C35" s="3"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="15"/>
       <c r="D35" s="4"/>
       <c r="E35" s="7"/>
       <c r="F35" s="8"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
     </row>
     <row r="36" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="69"/>
-      <c r="C36" s="3"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="4"/>
       <c r="E36" s="7"/>
       <c r="F36" s="8"/>
       <c r="G36" s="10"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
     </row>
     <row r="37" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="69"/>
-      <c r="C37" s="3"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="15"/>
       <c r="D37" s="4"/>
       <c r="E37" s="7"/>
       <c r="F37" s="8"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
     </row>
     <row r="38" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="69"/>
-      <c r="C38" s="3"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="15"/>
       <c r="D38" s="4"/>
       <c r="E38" s="7"/>
       <c r="F38" s="8"/>
       <c r="G38" s="10"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
     </row>
     <row r="39" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="69"/>
-      <c r="C39" s="3"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="15"/>
       <c r="D39" s="4"/>
       <c r="E39" s="7"/>
       <c r="F39" s="8"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
     </row>
     <row r="40" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="69"/>
+      <c r="B40" s="35"/>
       <c r="C40" s="3"/>
       <c r="D40" s="4"/>
       <c r="E40" s="7"/>
       <c r="F40" s="8"/>
       <c r="G40" s="10"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
     </row>
     <row r="41" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="69"/>
-      <c r="C41" s="15"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="3"/>
       <c r="D41" s="4"/>
       <c r="E41" s="7"/>
       <c r="F41" s="8"/>
       <c r="G41" s="10"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
     </row>
     <row r="42" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="16"/>
-      <c r="C42" s="17"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="3"/>
       <c r="D42" s="4"/>
       <c r="E42" s="7"/>
       <c r="F42" s="8"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
     </row>
     <row r="43" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="18"/>
+      <c r="B43" s="35"/>
       <c r="C43" s="3"/>
       <c r="D43" s="4"/>
       <c r="E43" s="7"/>
       <c r="F43" s="8"/>
       <c r="G43" s="10"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
     </row>
     <row r="44" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="9"/>
+      <c r="B44" s="35"/>
       <c r="C44" s="3"/>
       <c r="D44" s="4"/>
       <c r="E44" s="7"/>
       <c r="F44" s="8"/>
       <c r="G44" s="10"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
     </row>
     <row r="45" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="9"/>
+      <c r="B45" s="35"/>
       <c r="C45" s="3"/>
       <c r="D45" s="4"/>
       <c r="E45" s="7"/>
       <c r="F45" s="8"/>
       <c r="G45" s="10"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
     </row>
     <row r="46" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="14"/>
+      <c r="B46" s="35"/>
       <c r="C46" s="3"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="20"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="8"/>
       <c r="G46" s="10"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
     </row>
-    <row r="47" spans="2:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="70"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="73"/>
+    <row r="47" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="35"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="8"/>
       <c r="G47" s="10"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
     </row>
-    <row r="48" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="56"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
+    <row r="48" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="35"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
     </row>
-    <row r="49" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F49" s="24"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
+    <row r="49" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="35"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
     </row>
-    <row r="50" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F50" s="26"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="59"/>
+    <row r="50" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="35"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
     </row>
-    <row r="51" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F51" s="26"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
+    <row r="51" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="35"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
     </row>
-    <row r="52" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F52" s="26"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
+    <row r="52" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="35"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
     </row>
-    <row r="53" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F53" s="26"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
+    <row r="53" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="35"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
     </row>
-    <row r="54" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F54" s="26"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
+    <row r="54" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="35"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
     </row>
-    <row r="55" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F55" s="26"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
+    <row r="55" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="35"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
     </row>
-    <row r="56" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F56" s="26"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="51"/>
-      <c r="J56" s="51"/>
+    <row r="56" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="35"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+    </row>
+    <row r="57" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="35"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+    </row>
+    <row r="58" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="35"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+    </row>
+    <row r="59" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="35"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+    </row>
+    <row r="60" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="35"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+    </row>
+    <row r="61" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="16"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+    </row>
+    <row r="62" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="18"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+    </row>
+    <row r="63" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="9"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+    </row>
+    <row r="64" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="9"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+    </row>
+    <row r="65" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="14"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+    </row>
+    <row r="66" spans="2:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="36"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F67" s="23"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F68" s="25"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="71"/>
+      <c r="I68" s="71"/>
+      <c r="J68" s="71"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F69" s="25"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F70" s="25"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F71" s="25"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F72" s="25"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="27"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F73" s="25"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F74" s="25"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="63"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="H56:J56"/>
+  <mergeCells count="24">
+    <mergeCell ref="H74:J74"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H68:J68"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="B8:C8"/>
@@ -50155,7 +50295,7 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:F3"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.52" right="0.16" top="0.48" bottom="0.22" header="0.26" footer="0.17"/>
   <pageSetup paperSize="9" scale="83" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
